--- a/data/trans_orig/P6607-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>63842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50711</v>
+        <v>51691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76763</v>
+        <v>77247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3488316953572005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2770806298845676</v>
+        <v>0.2824388361727552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4194262726158825</v>
+        <v>0.422072877189012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -764,19 +764,19 @@
         <v>87135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75227</v>
+        <v>75399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98446</v>
+        <v>98797</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6402799844272045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5527787655827888</v>
+        <v>0.5540400338613117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7233914609463203</v>
+        <v>0.7259753930624214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -785,19 +785,19 @@
         <v>150978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>133427</v>
+        <v>132213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170455</v>
+        <v>167839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4731251604635142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4181274261183179</v>
+        <v>0.4143223472738601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5341637359521081</v>
+        <v>0.5259637936363307</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>34922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25320</v>
+        <v>25096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46086</v>
+        <v>47071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1908126197786974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1383474889317525</v>
+        <v>0.1371247114518121</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2518127818145813</v>
+        <v>0.2571955637945559</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -835,19 +835,19 @@
         <v>23911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14922</v>
+        <v>15825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33980</v>
+        <v>33487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1757037464781757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1096458769210165</v>
+        <v>0.1162865031228418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2496865937312536</v>
+        <v>0.2460676547261301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -856,19 +856,19 @@
         <v>58833</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45398</v>
+        <v>45601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75123</v>
+        <v>75421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1843691638148059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1422662810038793</v>
+        <v>0.1429016789079316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2354167226460413</v>
+        <v>0.2363487381949599</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>37983</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28050</v>
+        <v>28164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50783</v>
+        <v>49519</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2075362259426763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1532626129192686</v>
+        <v>0.1538840540938863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.277473061072395</v>
+        <v>0.2705669327074716</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -906,19 +906,19 @@
         <v>7171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3100</v>
+        <v>3136</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14701</v>
+        <v>14164</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05269130209163563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02278216026380877</v>
+        <v>0.02304692725631665</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.108025522457778</v>
+        <v>0.1040800750342356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -927,19 +927,19 @@
         <v>45154</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33898</v>
+        <v>33538</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58072</v>
+        <v>59190</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1414997698667708</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1062278256035083</v>
+        <v>0.1050987283998475</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1819824001845601</v>
+        <v>0.1854878117053083</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>46271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35792</v>
+        <v>34728</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60166</v>
+        <v>58305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2528194589214258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1955650074185181</v>
+        <v>0.189754026364873</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3287420279644976</v>
+        <v>0.318575368271641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -977,19 +977,19 @@
         <v>17872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10298</v>
+        <v>10937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27625</v>
+        <v>28380</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1313249670029842</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0756720023224976</v>
+        <v>0.0803664514714619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2029953658020748</v>
+        <v>0.2085414412939501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -998,19 +998,19 @@
         <v>64142</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50463</v>
+        <v>50098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80844</v>
+        <v>78516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2010059058549092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1581392297735206</v>
+        <v>0.1569958482417252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2533444403116265</v>
+        <v>0.2460493140357849</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>343811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>315675</v>
+        <v>317065</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>375305</v>
+        <v>376608</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3786047277521776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3476209732613471</v>
+        <v>0.349151254313684</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4132853314516546</v>
+        <v>0.4147206771318937</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>401</v>
@@ -1123,19 +1123,19 @@
         <v>428629</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>407022</v>
+        <v>406271</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>449094</v>
+        <v>449768</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7482569842525073</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.710537425579833</v>
+        <v>0.7092262487120146</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7839816482828058</v>
+        <v>0.7851580899081801</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>725</v>
@@ -1144,19 +1144,19 @@
         <v>772441</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>734405</v>
+        <v>730238</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>815631</v>
+        <v>809637</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5215887470221524</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4959052572667283</v>
+        <v>0.4930912286696165</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5507527902197317</v>
+        <v>0.5467053830575974</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>184229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161913</v>
+        <v>159920</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210072</v>
+        <v>210341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2028722647164523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.178297938999826</v>
+        <v>0.1761042285233173</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2313308572814829</v>
+        <v>0.2316268149374891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1194,19 +1194,19 @@
         <v>79194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63881</v>
+        <v>64386</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97339</v>
+        <v>97019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1382485566028307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1115176494753733</v>
+        <v>0.1123976513817197</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1699237182443934</v>
+        <v>0.1693655042642389</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>252</v>
@@ -1215,19 +1215,19 @@
         <v>263422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235031</v>
+        <v>231213</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>296643</v>
+        <v>292928</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1778753727356048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1587039013086819</v>
+        <v>0.1561262544966574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2003078083441314</v>
+        <v>0.1977987664547071</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>171239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150022</v>
+        <v>148683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194814</v>
+        <v>196236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1885686584475641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1652044630150408</v>
+        <v>0.1637299858918818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.214529509833443</v>
+        <v>0.2160952525173656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -1265,19 +1265,19 @@
         <v>33857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23408</v>
+        <v>23904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48130</v>
+        <v>47572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05910430481775351</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04086302658829229</v>
+        <v>0.04172880959391458</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08402109295463958</v>
+        <v>0.08304582980383544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>199</v>
@@ -1286,19 +1286,19 @@
         <v>205097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180237</v>
+        <v>180424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>231932</v>
+        <v>232452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1384909616158577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1217048946162272</v>
+        <v>0.121830703703941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1566115326361725</v>
+        <v>0.1569623584361258</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>208822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183595</v>
+        <v>181005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>237180</v>
+        <v>234023</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.229954349083806</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2021751528727903</v>
+        <v>0.1993225792817895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.261182648430005</v>
+        <v>0.257706224271899</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1336,19 +1336,19 @@
         <v>31157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21060</v>
+        <v>21074</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43318</v>
+        <v>44504</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05439015432690839</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0367639457089351</v>
+        <v>0.03678915650653371</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07561990652851676</v>
+        <v>0.07768964325868236</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>220</v>
@@ -1357,19 +1357,19 @@
         <v>239978</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>211450</v>
+        <v>212155</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>269607</v>
+        <v>269887</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1620449186263851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1427813382239564</v>
+        <v>0.1432569301913779</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1820511894392069</v>
+        <v>0.1822403744367227</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>167530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148071</v>
+        <v>150053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>186508</v>
+        <v>186473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5334801276531883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4715150732750231</v>
+        <v>0.4778250761382758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5939117546267504</v>
+        <v>0.5937994783490684</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -1482,19 +1482,19 @@
         <v>172832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157124</v>
+        <v>157166</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186844</v>
+        <v>185817</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7393644413371174</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6721693842073444</v>
+        <v>0.6723488835947217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7993069648536765</v>
+        <v>0.7949164212108774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>309</v>
@@ -1503,19 +1503,19 @@
         <v>340363</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317350</v>
+        <v>314414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>364730</v>
+        <v>362260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6213365564470635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5793259714909885</v>
+        <v>0.5739671081958494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6658193713651173</v>
+        <v>0.6613113521178561</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>77367</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>61499</v>
+        <v>62439</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94729</v>
+        <v>93087</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2463648406611777</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1958375821969864</v>
+        <v>0.1988297342819492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3016527960108628</v>
+        <v>0.2964258424500218</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -1553,19 +1553,19 @@
         <v>47415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35798</v>
+        <v>35510</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62437</v>
+        <v>61463</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2028390030284443</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1531402575903801</v>
+        <v>0.1519108765489585</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2671011362587404</v>
+        <v>0.262937170528316</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>116</v>
@@ -1574,19 +1574,19 @@
         <v>124782</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>105490</v>
+        <v>104023</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>145768</v>
+        <v>144818</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.227791183512413</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1925729187385943</v>
+        <v>0.1898948515863051</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2661022393216142</v>
+        <v>0.2643669321029016</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>49666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37003</v>
+        <v>36214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64116</v>
+        <v>67022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.15815455597043</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1178316835689101</v>
+        <v>0.1153190636306172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2041688317688538</v>
+        <v>0.2134223183646145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1624,19 +1624,19 @@
         <v>8710</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3931</v>
+        <v>3746</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16730</v>
+        <v>17724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03726033254997056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01681739978075185</v>
+        <v>0.016027060671722</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07157207420958496</v>
+        <v>0.07582190493367809</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -1645,19 +1645,19 @@
         <v>58376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43241</v>
+        <v>43965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77077</v>
+        <v>75763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1065657071578091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07893688385631538</v>
+        <v>0.08025892984829583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1407059225098072</v>
+        <v>0.1383058113669144</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>19470</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11276</v>
+        <v>11758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30027</v>
+        <v>30350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06200047571520398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03590571835451846</v>
+        <v>0.03744286199716404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09561714230590755</v>
+        <v>0.09664451477425084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1695,19 +1695,19 @@
         <v>4800</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12397</v>
+        <v>12183</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02053622308446768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004314481722025264</v>
+        <v>0.004322678945641896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05303213276190646</v>
+        <v>0.05211950785895433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1716,19 +1716,19 @@
         <v>24271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15408</v>
+        <v>15206</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36517</v>
+        <v>36512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04430655288271432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02812695279166647</v>
+        <v>0.02775799475337701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06666182614257839</v>
+        <v>0.06665227269493738</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>575185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>536434</v>
+        <v>535848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>614108</v>
+        <v>616481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4093395051032002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3817618610989458</v>
+        <v>0.3813449981269947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4370396568354672</v>
+        <v>0.4387285931982243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>637</v>
@@ -1841,19 +1841,19 @@
         <v>688596</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>661515</v>
+        <v>661520</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>716794</v>
+        <v>715253</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7304639438410317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7017366683676933</v>
+        <v>0.7017419512609114</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7603762394544749</v>
+        <v>0.7587420640199652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1175</v>
@@ -1862,19 +1862,19 @@
         <v>1263781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1212977</v>
+        <v>1213151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1310960</v>
+        <v>1314560</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5382746763330505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5166360333167912</v>
+        <v>0.5167100866522752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5583696553249832</v>
+        <v>0.5599027431377338</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>296518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265339</v>
+        <v>263456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>328656</v>
+        <v>328927</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.211021550378839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1888330781444127</v>
+        <v>0.1874924093637237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2338934003002393</v>
+        <v>0.2340865266472323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1912,19 +1912,19 @@
         <v>150520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>129336</v>
+        <v>128972</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175980</v>
+        <v>177337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1596722170415479</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1372001226240599</v>
+        <v>0.1368136278748007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1866802869094674</v>
+        <v>0.1881192236771872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>422</v>
@@ -1933,19 +1933,19 @@
         <v>447038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>411098</v>
+        <v>407108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486339</v>
+        <v>487206</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1904041999448301</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1750963506792</v>
+        <v>0.1733969216057909</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2071434675561407</v>
+        <v>0.2075129649171692</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>258888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>230369</v>
+        <v>231737</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>293776</v>
+        <v>288533</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1842419854244627</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1639461443717826</v>
+        <v>0.1649193804209064</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2090707529474722</v>
+        <v>0.2053389279496907</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1983,19 +1983,19 @@
         <v>49738</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35430</v>
+        <v>37237</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65074</v>
+        <v>64878</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0527618508672914</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03758439041481278</v>
+        <v>0.03950094193422202</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06903105461780246</v>
+        <v>0.06882272919080321</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>291</v>
@@ -2004,19 +2004,19 @@
         <v>308626</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>279012</v>
+        <v>275030</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>342293</v>
+        <v>339998</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1314511927676238</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1188381244428512</v>
+        <v>0.1171419985522016</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1457908380624085</v>
+        <v>0.1448135543395395</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>274563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245448</v>
+        <v>243091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>307509</v>
+        <v>306757</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1953969590934982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1746773735790063</v>
+        <v>0.1729995484553261</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2188440203046838</v>
+        <v>0.218308561914775</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2054,19 +2054,19 @@
         <v>53829</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39527</v>
+        <v>40817</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70509</v>
+        <v>69858</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05710198825012901</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04193043059541677</v>
+        <v>0.04329917849794068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07479599812548274</v>
+        <v>0.07410576286832569</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>303</v>
@@ -2075,19 +2075,19 @@
         <v>328392</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>295404</v>
+        <v>293448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>365469</v>
+        <v>364262</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1398699309544957</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1258197086154432</v>
+        <v>0.124986698441113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1556618770300212</v>
+        <v>0.1551478533271721</v>
       </c>
     </row>
     <row r="23">
@@ -2418,19 +2418,19 @@
         <v>30917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22096</v>
+        <v>21894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41959</v>
+        <v>41590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2283780090387404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1632176809281877</v>
+        <v>0.1617215737970336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3099398076758071</v>
+        <v>0.3072152755675872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2439,19 +2439,19 @@
         <v>38665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30098</v>
+        <v>30801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46431</v>
+        <v>47063</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5593197358069769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.435396135569132</v>
+        <v>0.445560563580606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6716620339573071</v>
+        <v>0.6808102314663155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -2460,19 +2460,19 @@
         <v>69582</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57555</v>
+        <v>56924</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82685</v>
+        <v>83435</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3402448683773227</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2814341037776598</v>
+        <v>0.2783489713166845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4043155376746754</v>
+        <v>0.4079814793347511</v>
       </c>
     </row>
     <row r="5">
@@ -2489,19 +2489,19 @@
         <v>26449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17469</v>
+        <v>18672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36952</v>
+        <v>36695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1953748155127079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1290406962535375</v>
+        <v>0.1379243959909703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2729577672561754</v>
+        <v>0.2710554406479391</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2510,19 +2510,19 @@
         <v>15166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9324</v>
+        <v>9105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23223</v>
+        <v>23011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.21939199601104</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1348872205122074</v>
+        <v>0.1317071224200282</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3359397173543727</v>
+        <v>0.3328788741553303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -2531,19 +2531,19 @@
         <v>41616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31088</v>
+        <v>30930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53663</v>
+        <v>55032</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2034932434267491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1520145711328592</v>
+        <v>0.1512426462112256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2624045207512842</v>
+        <v>0.2690974814001341</v>
       </c>
     </row>
     <row r="6">
@@ -2560,19 +2560,19 @@
         <v>27517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18370</v>
+        <v>18426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37528</v>
+        <v>37831</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2032602454806165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1356967333663286</v>
+        <v>0.1361095595075722</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2772107918583664</v>
+        <v>0.2794444383800435</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -2581,19 +2581,19 @@
         <v>4745</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1856</v>
+        <v>1830</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11163</v>
+        <v>10091</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06864332311301947</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02684846168437018</v>
+        <v>0.02647675183238412</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1614835215638212</v>
+        <v>0.1459741631452202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -2602,19 +2602,19 @@
         <v>32262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23353</v>
+        <v>23282</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44424</v>
+        <v>44391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1577562455282775</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1141908388961184</v>
+        <v>0.1138445773028169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2172234594601131</v>
+        <v>0.2170662227589427</v>
       </c>
     </row>
     <row r="7">
@@ -2631,19 +2631,19 @@
         <v>50494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38655</v>
+        <v>39361</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61449</v>
+        <v>62802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3729869299679352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2855343969757648</v>
+        <v>0.2907498537173682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4539033289616348</v>
+        <v>0.4639012676118674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2652,19 +2652,19 @@
         <v>10552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5689</v>
+        <v>5664</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17829</v>
+        <v>17516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1526449450689636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08230166800288659</v>
+        <v>0.08193369458308936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25790770203943</v>
+        <v>0.2533865382475238</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -2673,19 +2673,19 @@
         <v>61046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48751</v>
+        <v>47627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75095</v>
+        <v>73953</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2985056426676507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2383844146120557</v>
+        <v>0.2328856243134982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3672037550052473</v>
+        <v>0.3616195833324894</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>309221</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>279008</v>
+        <v>282373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>342017</v>
+        <v>338767</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3359286432192732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3031066085549267</v>
+        <v>0.3067618301989788</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3715569025963781</v>
+        <v>0.3680261345636734</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>432</v>
@@ -2798,19 +2798,19 @@
         <v>439752</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>413553</v>
+        <v>413323</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>464362</v>
+        <v>461337</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6779324092491509</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6375436023381125</v>
+        <v>0.6371887766155352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7158721340502853</v>
+        <v>0.7112094515158421</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>725</v>
@@ -2819,19 +2819,19 @@
         <v>748972</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>710982</v>
+        <v>704533</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>789339</v>
+        <v>785074</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4773073855349984</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4530969791898815</v>
+        <v>0.4489872843680838</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5030324038141952</v>
+        <v>0.5003145783922467</v>
       </c>
     </row>
     <row r="10">
@@ -2848,19 +2848,19 @@
         <v>238838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>213240</v>
+        <v>212258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>265395</v>
+        <v>266922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2594668611644568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2316580561150273</v>
+        <v>0.2305906348793279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2883176531696181</v>
+        <v>0.2899759789430806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -2869,19 +2869,19 @@
         <v>126092</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108397</v>
+        <v>106367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150126</v>
+        <v>148410</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1943870613316336</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1671080348936578</v>
+        <v>0.1639778582357246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2314380318876523</v>
+        <v>0.2287933904327671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>343</v>
@@ -2890,19 +2890,19 @@
         <v>364930</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330371</v>
+        <v>334470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400533</v>
+        <v>402313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2325639403067962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2105399172139616</v>
+        <v>0.2131520735148817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2552532609805429</v>
+        <v>0.2563875708719024</v>
       </c>
     </row>
     <row r="11">
@@ -2919,19 +2919,19 @@
         <v>166847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144141</v>
+        <v>143770</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>191223</v>
+        <v>190985</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1812572334744588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.156591013882554</v>
+        <v>0.156187525851944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2077387692373985</v>
+        <v>0.207480002256527</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -2940,19 +2940,19 @@
         <v>42017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30815</v>
+        <v>30282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55302</v>
+        <v>55176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06477371905898703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04750515416652569</v>
+        <v>0.04668323875707397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08525457157079985</v>
+        <v>0.08506106310500525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>195</v>
@@ -2961,19 +2961,19 @@
         <v>208863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184307</v>
+        <v>181061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236582</v>
+        <v>239572</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1331048608858588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1174558286957246</v>
+        <v>0.1153868422217511</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1507700558953816</v>
+        <v>0.1526755046846908</v>
       </c>
     </row>
     <row r="12">
@@ -2990,19 +2990,19 @@
         <v>205590</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183054</v>
+        <v>181501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>233611</v>
+        <v>235011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2233472621418111</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1988640717817566</v>
+        <v>0.1971770245466599</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2537883158408973</v>
+        <v>0.2553095747716571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -3011,19 +3011,19 @@
         <v>40806</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30252</v>
+        <v>29164</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55470</v>
+        <v>54272</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06290681036022849</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04663755601657215</v>
+        <v>0.04496031503749245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08551412660508959</v>
+        <v>0.08366722944830132</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>232</v>
@@ -3032,19 +3032,19 @@
         <v>246396</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>217453</v>
+        <v>218967</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>279352</v>
+        <v>277032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1570238132723466</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1385788548871642</v>
+        <v>0.1395441469026241</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1780262316241658</v>
+        <v>0.1765481143693726</v>
       </c>
     </row>
     <row r="13">
@@ -3136,19 +3136,19 @@
         <v>200681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>184284</v>
+        <v>181490</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219502</v>
+        <v>219169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5790224785112168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5317130933584336</v>
+        <v>0.5236522243196111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6333289269570399</v>
+        <v>0.6323683393551094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -3157,19 +3157,19 @@
         <v>233686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218252</v>
+        <v>215818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247377</v>
+        <v>247545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7576051552118479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.707570405059409</v>
+        <v>0.6996788092979962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8019925788823521</v>
+        <v>0.8025369128513663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -3178,19 +3178,19 @@
         <v>434367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>409200</v>
+        <v>408740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>459775</v>
+        <v>458930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6631158385679327</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6246950209891612</v>
+        <v>0.623993436595624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.701904402786802</v>
+        <v>0.7006152963993247</v>
       </c>
     </row>
     <row r="15">
@@ -3207,19 +3207,19 @@
         <v>93570</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77003</v>
+        <v>78111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>110188</v>
+        <v>114245</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2699768813497693</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2221762506667347</v>
+        <v>0.2253722011221772</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3179252596770881</v>
+        <v>0.3296308576048281</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -3228,19 +3228,19 @@
         <v>50624</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38624</v>
+        <v>38706</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64192</v>
+        <v>65609</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1641212687585803</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1252176925678044</v>
+        <v>0.1254843758783933</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2081107277575792</v>
+        <v>0.2127041042607928</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -3249,19 +3249,19 @@
         <v>144194</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>121942</v>
+        <v>124330</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>166362</v>
+        <v>168227</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.220130197964137</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1861592982660722</v>
+        <v>0.1898052920972885</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2539733076783458</v>
+        <v>0.2568204583201831</v>
       </c>
     </row>
     <row r="16">
@@ -3278,19 +3278,19 @@
         <v>32098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23253</v>
+        <v>22059</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44949</v>
+        <v>45378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09261347530161892</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0670931192220155</v>
+        <v>0.06364713648339233</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1296924548671378</v>
+        <v>0.1309279805039632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -3299,19 +3299,19 @@
         <v>17439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9859</v>
+        <v>10747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26506</v>
+        <v>27482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05653713398805174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03196128470877467</v>
+        <v>0.0348415849735029</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0859305656046724</v>
+        <v>0.08909740295327831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3320,19 +3320,19 @@
         <v>49538</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37699</v>
+        <v>37070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65866</v>
+        <v>64668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07562537312026071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05755222311662028</v>
+        <v>0.05659173636447585</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1005523754492781</v>
+        <v>0.09872314348940911</v>
       </c>
     </row>
     <row r="17">
@@ -3349,19 +3349,19 @@
         <v>20236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12308</v>
+        <v>11798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30702</v>
+        <v>31603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05838716483739503</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03551101074829611</v>
+        <v>0.03404003045958676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08858411412756786</v>
+        <v>0.09118469487213073</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3370,19 +3370,19 @@
         <v>6705</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2941</v>
+        <v>2842</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14829</v>
+        <v>13158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02173644204152003</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009535593548840073</v>
+        <v>0.009214927325536483</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0480768057613254</v>
+        <v>0.04265890734564257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -3391,19 +3391,19 @@
         <v>26941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16662</v>
+        <v>17580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38788</v>
+        <v>38922</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04112859034766957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02543613739578705</v>
+        <v>0.02683868738873298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0592146218287935</v>
+        <v>0.05941879092571661</v>
       </c>
     </row>
     <row r="18">
@@ -3495,19 +3495,19 @@
         <v>540819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>505771</v>
+        <v>504811</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>578591</v>
+        <v>577816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3856219559785322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3606312236438693</v>
+        <v>0.3599468930922659</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4125549700375218</v>
+        <v>0.4120019783786956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>696</v>
@@ -3516,19 +3516,19 @@
         <v>712102</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>685068</v>
+        <v>681807</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>742295</v>
+        <v>741280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6938894074002849</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6675465527768982</v>
+        <v>0.6643691288976078</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7233098424413121</v>
+        <v>0.7223210401561651</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1205</v>
@@ -3537,19 +3537,19 @@
         <v>1252921</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1202490</v>
+        <v>1205780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1305696</v>
+        <v>1302075</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5158800321324953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4951156040467676</v>
+        <v>0.4964700987893529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5376097318424433</v>
+        <v>0.536118677871493</v>
       </c>
     </row>
     <row r="20">
@@ -3566,19 +3566,19 @@
         <v>358858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324997</v>
+        <v>327220</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>393315</v>
+        <v>393349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2558774438944008</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2317339649135925</v>
+        <v>0.2333184916173071</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2804465873094322</v>
+        <v>0.2804711382736723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>185</v>
@@ -3587,19 +3587,19 @@
         <v>191882</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167589</v>
+        <v>168102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>218879</v>
+        <v>218155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1869745846923443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1633025072241366</v>
+        <v>0.163802806959898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.213280717455753</v>
+        <v>0.2125752773872418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -3608,19 +3608,19 @@
         <v>550740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511441</v>
+        <v>504390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>593721</v>
+        <v>591605</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2267626157159045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2105816738419745</v>
+        <v>0.2076785633817439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2444597244489629</v>
+        <v>0.2435887034167039</v>
       </c>
     </row>
     <row r="21">
@@ -3637,19 +3637,19 @@
         <v>226462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>197464</v>
+        <v>196823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>256252</v>
+        <v>257379</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.161474893589565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1407981165619313</v>
+        <v>0.1403410986205044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1827163896725918</v>
+        <v>0.1835195901235115</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -3658,19 +3658,19 @@
         <v>64201</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49333</v>
+        <v>50024</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>79116</v>
+        <v>81683</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06255875343050844</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0480715098052858</v>
+        <v>0.04874473269773011</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07709216040325198</v>
+        <v>0.07959426701207094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>273</v>
@@ -3679,19 +3679,19 @@
         <v>290663</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>256897</v>
+        <v>260002</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>327549</v>
+        <v>326902</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.119677986201939</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1057751590017572</v>
+        <v>0.1070535547531824</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1348657256461119</v>
+        <v>0.134599268170186</v>
       </c>
     </row>
     <row r="22">
@@ -3708,19 +3708,19 @@
         <v>276320</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248379</v>
+        <v>245761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>308223</v>
+        <v>306351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.197025706537502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1771023253983199</v>
+        <v>0.1752359130033481</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2197729520216677</v>
+        <v>0.2184382455352787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -3729,19 +3729,19 @@
         <v>58062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43767</v>
+        <v>44594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72578</v>
+        <v>75491</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05657725447686225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04264781285263651</v>
+        <v>0.04345364674770467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07072188262454204</v>
+        <v>0.07355995279634892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>315</v>
@@ -3750,19 +3750,19 @@
         <v>334383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>303984</v>
+        <v>301124</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371393</v>
+        <v>371096</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1376793659496611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1251629170772068</v>
+        <v>0.1239851717279411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1529178902121661</v>
+        <v>0.1527958041571399</v>
       </c>
     </row>
     <row r="23">
@@ -4093,19 +4093,19 @@
         <v>19659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12668</v>
+        <v>12769</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29108</v>
+        <v>30133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2270521240578204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1463108996080891</v>
+        <v>0.1474756549694742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3361806235885954</v>
+        <v>0.3480207752750016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -4114,19 +4114,19 @@
         <v>23751</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17432</v>
+        <v>17132</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29242</v>
+        <v>29077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.53845256097441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3952103648185905</v>
+        <v>0.3884082111583906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6629561402176247</v>
+        <v>0.6592013390419962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -4135,19 +4135,19 @@
         <v>43410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33920</v>
+        <v>33030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54713</v>
+        <v>54543</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3321506331808819</v>
+        <v>0.3321506331808818</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2595362343499183</v>
+        <v>0.2527298202570891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4186357122576919</v>
+        <v>0.4173384400977774</v>
       </c>
     </row>
     <row r="5">
@@ -4164,19 +4164,19 @@
         <v>19705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11980</v>
+        <v>12168</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30283</v>
+        <v>29601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2275809021573956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1383635645031338</v>
+        <v>0.1405381538948716</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3497528502288364</v>
+        <v>0.3418796128388522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -4185,19 +4185,19 @@
         <v>14375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9647</v>
+        <v>9776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20685</v>
+        <v>21090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3259032094764027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2187086193120674</v>
+        <v>0.2216286495757305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4689424955644059</v>
+        <v>0.4781232641577283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -4206,19 +4206,19 @@
         <v>34080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25044</v>
+        <v>23774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45169</v>
+        <v>45081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2607649529412904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1916234685393249</v>
+        <v>0.1819040592386048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3456084286430704</v>
+        <v>0.3449379446285765</v>
       </c>
     </row>
     <row r="6">
@@ -4235,19 +4235,19 @@
         <v>11359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5353</v>
+        <v>5488</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20088</v>
+        <v>21755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1311875298260927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06182932782356658</v>
+        <v>0.06338787965431968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2320034154501591</v>
+        <v>0.2512541507973073</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4256,19 +4256,19 @@
         <v>2645</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6277</v>
+        <v>6324</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05996126771550193</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01479642595160611</v>
+        <v>0.01436857409411415</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1423176516050674</v>
+        <v>0.1433680110715125</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -4277,19 +4277,19 @@
         <v>14004</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7713</v>
+        <v>8177</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23773</v>
+        <v>24422</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.107148469276423</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05901692412275832</v>
+        <v>0.06256876767790039</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1818974250840995</v>
+        <v>0.1868676181238812</v>
       </c>
     </row>
     <row r="7">
@@ -4306,19 +4306,19 @@
         <v>35861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25684</v>
+        <v>24866</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48062</v>
+        <v>46889</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4141794439586914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2966413681418238</v>
+        <v>0.2871918164824342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5550931766076637</v>
+        <v>0.5415418383966861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4327,19 +4327,19 @@
         <v>3338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10405</v>
+        <v>10165</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07568296183368516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0156204429883701</v>
+        <v>0.01559152273467776</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2358904303785345</v>
+        <v>0.230448985757931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -4348,19 +4348,19 @@
         <v>39200</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27576</v>
+        <v>27439</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52395</v>
+        <v>52987</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2999359446014048</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2109973461835275</v>
+        <v>0.2099530401513849</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4009010919009027</v>
+        <v>0.4054307550068006</v>
       </c>
     </row>
     <row r="8">
@@ -4452,19 +4452,19 @@
         <v>189893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>164851</v>
+        <v>166253</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>217722</v>
+        <v>215790</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3072657896329663</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2667451951483009</v>
+        <v>0.2690133052706866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3522964493964338</v>
+        <v>0.3491688665366706</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>387</v>
@@ -4473,19 +4473,19 @@
         <v>296169</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>278256</v>
+        <v>278362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>315449</v>
+        <v>313467</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6598885750114262</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6199775303851294</v>
+        <v>0.6202142187459025</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7028462301925009</v>
+        <v>0.6984310167284984</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>548</v>
@@ -4494,19 +4494,19 @@
         <v>486062</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>453495</v>
+        <v>452244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>519352</v>
+        <v>522101</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4556151289529271</v>
+        <v>0.455615128952927</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4250883080450351</v>
+        <v>0.4239160812392584</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4868204855375877</v>
+        <v>0.4893973499229816</v>
       </c>
     </row>
     <row r="10">
@@ -4523,19 +4523,19 @@
         <v>167542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144594</v>
+        <v>142594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194596</v>
+        <v>192568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2710992308075378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2339677133799336</v>
+        <v>0.2307313756886043</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3148752952001295</v>
+        <v>0.3115938035046589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -4544,19 +4544,19 @@
         <v>77458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64780</v>
+        <v>64060</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92664</v>
+        <v>92125</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1725819647248814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1443355213050853</v>
+        <v>0.1427303524463944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2064627279676579</v>
+        <v>0.2052628098516906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -4565,19 +4565,19 @@
         <v>244999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>219291</v>
+        <v>217392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>275225</v>
+        <v>276450</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2296527561581897</v>
+        <v>0.2296527561581896</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2055549074181412</v>
+        <v>0.2037748133312532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2579853645556338</v>
+        <v>0.2591334982670762</v>
       </c>
     </row>
     <row r="11">
@@ -4594,19 +4594,19 @@
         <v>115414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93916</v>
+        <v>96059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137815</v>
+        <v>142029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.186752098322172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1519653499744854</v>
+        <v>0.155432810889893</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2229982042637649</v>
+        <v>0.2298164877818498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -4615,19 +4615,19 @@
         <v>32327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23862</v>
+        <v>23537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43269</v>
+        <v>44346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.072027271289288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05316582905724056</v>
+        <v>0.05244228050079939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09640646154708263</v>
+        <v>0.09880667619182727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -4636,19 +4636,19 @@
         <v>147741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>124361</v>
+        <v>125712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>172613</v>
+        <v>173088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1384870598741921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.116571456416822</v>
+        <v>0.117837102544803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1618009066527158</v>
+        <v>0.162245701938101</v>
       </c>
     </row>
     <row r="12">
@@ -4665,19 +4665,19 @@
         <v>145160</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>120816</v>
+        <v>122099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>171090</v>
+        <v>171898</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.234882881237324</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1954917171990636</v>
+        <v>0.1975677749439489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.276841211793118</v>
+        <v>0.2781481580472122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -4686,19 +4686,19 @@
         <v>42863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32871</v>
+        <v>32212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55994</v>
+        <v>55248</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09550218897440452</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07323865607035994</v>
+        <v>0.07177004507442092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.124760227849502</v>
+        <v>0.1230980211835765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>174</v>
@@ -4707,19 +4707,19 @@
         <v>188023</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>162061</v>
+        <v>161496</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>215887</v>
+        <v>216619</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1762450550146912</v>
+        <v>0.1762450550146911</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1519097500271749</v>
+        <v>0.1513799590183652</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2023644760153523</v>
+        <v>0.2030499418278968</v>
       </c>
     </row>
     <row r="13">
@@ -4811,19 +4811,19 @@
         <v>181505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163553</v>
+        <v>164479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197134</v>
+        <v>197888</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.689520004161864</v>
+        <v>0.6895200041618641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6213216723701886</v>
+        <v>0.6248389995400948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7488928955261908</v>
+        <v>0.7517573958868512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>252</v>
@@ -4832,19 +4832,19 @@
         <v>187298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>176891</v>
+        <v>178327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194980</v>
+        <v>196270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8575994674299818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.809946277710089</v>
+        <v>0.8165222587051939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.892774455492335</v>
+        <v>0.8986802452251933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>408</v>
@@ -4853,19 +4853,19 @@
         <v>368803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347364</v>
+        <v>347349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386176</v>
+        <v>385610</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7657362669654236</v>
+        <v>0.7657362669654235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7212226220799756</v>
+        <v>0.7211908116574127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8018062898944951</v>
+        <v>0.800632304965501</v>
       </c>
     </row>
     <row r="15">
@@ -4882,19 +4882,19 @@
         <v>42898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32393</v>
+        <v>30968</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57410</v>
+        <v>54789</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1629668739598053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1230586217616039</v>
+        <v>0.1176428734630384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2180937702513896</v>
+        <v>0.2081381734460176</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -4903,19 +4903,19 @@
         <v>24021</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17334</v>
+        <v>16654</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33937</v>
+        <v>32906</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1099879037691049</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.079370637074623</v>
+        <v>0.07625479054785117</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.155392360472314</v>
+        <v>0.1506698113134428</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>75</v>
@@ -4924,19 +4924,19 @@
         <v>66920</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53580</v>
+        <v>53877</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>84163</v>
+        <v>83636</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.138943361291424</v>
+        <v>0.1389433612914239</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1112468321062703</v>
+        <v>0.1118626383415076</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1747449890851949</v>
+        <v>0.1736506112151024</v>
       </c>
     </row>
     <row r="16">
@@ -4953,19 +4953,19 @@
         <v>23992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13558</v>
+        <v>14524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37745</v>
+        <v>38236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09114313481879645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05150545307264478</v>
+        <v>0.05517664126081448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1433899225698327</v>
+        <v>0.1452530744021533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4974,19 +4974,19 @@
         <v>3169</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7855</v>
+        <v>7797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01450807369090693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003533265380039638</v>
+        <v>0.003610387888229547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03596770220050566</v>
+        <v>0.03570224679632532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4995,19 +4995,19 @@
         <v>27161</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17009</v>
+        <v>17526</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43583</v>
+        <v>42662</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05639267902055978</v>
+        <v>0.05639267902055977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03531546681643109</v>
+        <v>0.03638930928739521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0904904775972295</v>
+        <v>0.08857739604762264</v>
       </c>
     </row>
     <row r="17">
@@ -5024,19 +5024,19 @@
         <v>14838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8110</v>
+        <v>7903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29183</v>
+        <v>29941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05636998705953418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03080778410586254</v>
+        <v>0.03002141804345797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1108626958979083</v>
+        <v>0.1137433184513372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5045,19 +5045,19 @@
         <v>3910</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1436</v>
+        <v>1486</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8502</v>
+        <v>8443</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01790455511000633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00657297594296033</v>
+        <v>0.006802606223797046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03892827201376907</v>
+        <v>0.03866071163381278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -5066,19 +5066,19 @@
         <v>18749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10379</v>
+        <v>11480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33374</v>
+        <v>33489</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03892769272259275</v>
+        <v>0.03892769272259274</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02154986337879608</v>
+        <v>0.02383522322665292</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06929416249973772</v>
+        <v>0.06953274444034459</v>
       </c>
     </row>
     <row r="18">
@@ -5170,19 +5170,19 @@
         <v>391057</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>359123</v>
+        <v>358383</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>426481</v>
+        <v>428584</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4040570460238993</v>
+        <v>0.4040570460238994</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.371061583731041</v>
+        <v>0.3702964148432636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4406587870182775</v>
+        <v>0.4428316003503386</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>673</v>
@@ -5191,19 +5191,19 @@
         <v>507217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>484288</v>
+        <v>486718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>525922</v>
+        <v>528472</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7130615660344913</v>
+        <v>0.7130615660344912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.680826854620771</v>
+        <v>0.6842432433898815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7393569545381776</v>
+        <v>0.7429429957204138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1009</v>
@@ -5212,19 +5212,19 @@
         <v>898274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>852619</v>
+        <v>857181</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>937677</v>
+        <v>940200</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5349578469018064</v>
+        <v>0.5349578469018063</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5077682361392769</v>
+        <v>0.5104848283494106</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.558423493118708</v>
+        <v>0.5599263209603575</v>
       </c>
     </row>
     <row r="20">
@@ -5241,19 +5241,19 @@
         <v>230145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203965</v>
+        <v>199449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263888</v>
+        <v>257588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2377956351890525</v>
+        <v>0.2377956351890526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2107456103000531</v>
+        <v>0.2060791470257487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.272659798631119</v>
+        <v>0.2661511669863153</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -5262,19 +5262,19 @@
         <v>115854</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99376</v>
+        <v>97632</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>133456</v>
+        <v>134236</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1628711575446716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1397059665403142</v>
+        <v>0.1372545236105027</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1876163306278538</v>
+        <v>0.1887128506718974</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -5283,19 +5283,19 @@
         <v>345999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>315138</v>
+        <v>309684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>381411</v>
+        <v>381155</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2060560537464506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1876768971833954</v>
+        <v>0.1844290847245897</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2271454480507853</v>
+        <v>0.2269930317652241</v>
       </c>
     </row>
     <row r="21">
@@ -5312,19 +5312,19 @@
         <v>150765</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>126462</v>
+        <v>127810</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178213</v>
+        <v>180642</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.155776994075856</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1306655830848711</v>
+        <v>0.1320585161076135</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1841370034492142</v>
+        <v>0.1866472098552178</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -5333,19 +5333,19 @@
         <v>38140</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28070</v>
+        <v>28874</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51608</v>
+        <v>51271</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05361891388193688</v>
+        <v>0.05361891388193687</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03946157875928139</v>
+        <v>0.04059176293654137</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07255272340359323</v>
+        <v>0.07207810255694648</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>173</v>
@@ -5354,19 +5354,19 @@
         <v>188906</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>161595</v>
+        <v>161810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>219164</v>
+        <v>219052</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.11250068694263</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0962363830560716</v>
+        <v>0.09636426603870467</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1305210711557961</v>
+        <v>0.1304542143100655</v>
       </c>
     </row>
     <row r="22">
@@ -5383,19 +5383,19 @@
         <v>195859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>167770</v>
+        <v>167016</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>229462</v>
+        <v>226483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2023703247111921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1733474249199779</v>
+        <v>0.1725677290162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2370902581562627</v>
+        <v>0.2340118876527625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -5404,19 +5404,19 @@
         <v>50112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38833</v>
+        <v>39249</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>64431</v>
+        <v>65072</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07044836253890027</v>
+        <v>0.07044836253890026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05459253234349871</v>
+        <v>0.05517740533526379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09057875118637967</v>
+        <v>0.09148091454645078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -5425,19 +5425,19 @@
         <v>245971</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>213854</v>
+        <v>214992</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>278410</v>
+        <v>280071</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1464854124091131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1273586654394163</v>
+        <v>0.1280361694516729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1658039113918547</v>
+        <v>0.1667931861473247</v>
       </c>
     </row>
     <row r="23">
